--- a/Publish/source/Transform/TransformTemplate.xlsx
+++ b/Publish/source/Transform/TransformTemplate.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>s002</t>
   </si>
   <si>
     <t>Input file name</t>
@@ -65,6 +68,9 @@
     </r>
   </si>
   <si>
+    <t>s001</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -86,6 +92,9 @@
     </r>
   </si>
   <si>
+    <t>s003</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -107,6 +116,12 @@
     </r>
   </si>
   <si>
+    <t>s004</t>
+  </si>
+  <si>
+    <t>s005</t>
+  </si>
+  <si>
     <r>
       <t>Scale X</t>
     </r>
@@ -117,7 +132,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>: Resize factor and mirroring along the X axis (e.g. -0,5 is scaling by half on X axis and flipped vertically).</t>
+      <t>: mirroring and scaling on the Y axis (e.g. -0,5 is scaling by half and flipped vertically).</t>
     </r>
   </si>
   <si>
@@ -131,7 +146,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>: Resize factor and mirroring along the Y axis (e.g. -0,5 is scaling by half on Y axis and flipped horizontally).</t>
+      <t>: mirroring and scaling on the X axis (e.g. -0,5 is scaling by half and flipped horizontally).</t>
     </r>
   </si>
 </sst>
@@ -309,6 +324,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285778</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12582525" y="571500"/>
+          <a:ext cx="200053" cy="181000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12782550" y="771525"/>
+          <a:ext cx="181000" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,34 +685,39 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16.140625" style="1"/>
-    <col min="8" max="17" width="16.140625" style="2"/>
-    <col min="18" max="1025" width="16.140625" style="1"/>
+    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="17" width="11.42578125" style="2"/>
+    <col min="18" max="1025" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="7"/>
@@ -621,8 +734,23 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7"/>
@@ -639,10 +767,23 @@
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7"/>
@@ -659,10 +800,23 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>180</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="7"/>
@@ -679,10 +833,23 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
@@ -713,6 +880,7 @@
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F10"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -739,5 +907,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>